--- a/biology/Zoologie/Geocenamus/Geocenamus.xlsx
+++ b/biology/Zoologie/Geocenamus/Geocenamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geocenamus est un genre de nématodes de la famille des Dolichodoridae.
 </t>
@@ -511,10 +523,48 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 mai 2021)[1] :
-Noms acceptés
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 mai 2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Geocenamus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geocenamus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms acceptés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Geocenamus acuminatus (Minagawa, 1985) Brzeski, 1991
 Geocenamus adakensis (Bernard, 1984) Brzeski, 1991
 Geocenamus alboranensis (Tobar-Jiménez, 1970) Brzeski, 1991
@@ -586,8 +636,43 @@
 Geocenamus tumensis (Skwiercz, 1984) Brzeski, 1991
 Geocenamus uralensis Baydulova, 1983
 Geocenamus variabilis (Ivanova &amp; Shagalina, 1983) Brzeski, 1991
-Synonymes
-Geocenamus affinis (Allen, 1955) Brzeski, 1991, synonyme de Nagelus affinis (Allen, 1955) Siddiqi, 1979
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geocenamus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geocenamus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Geocenamus affinis (Allen, 1955) Brzeski, 1991, synonyme de Nagelus affinis (Allen, 1955) Siddiqi, 1979
 Geocenamus alpinus (Allen, 1955) Brzeski, 1991, synonyme de Nagelus alpinus (Allen, 1955) Siddiqi, 1979
 Geocenamus arealoferus (Razzhivin, 1971) Brzeski, 1991, synonyme de Geocenamus arealoferus (Razzhivin, 1971) Fortuner &amp; Luc, 1987
 Geocenamus arenosus (Ivanova &amp; Shagalina, 1983) Brzeski, 1991, synonyme de Nagelus arenosus Ivanova &amp; Shagalina, 1983
